--- a/src/data/tienda360_3.xlsx
+++ b/src/data/tienda360_3.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PROYECTOS\Node.js\MOCKS\calin_mock\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmatiasm/Documents/MATIAS/PROYECTO-MATIAS/Calin_Repositorio_Mocks/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D419C6F-88ED-4DCB-8E73-58BB8DD1446E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC7F2E4-88FE-A64A-B4B3-6E907C6C9D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A60726CA-E045-3D44-984C-DD3A0D447AE4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11320" xr2:uid="{A60726CA-E045-3D44-984C-DD3A0D447AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="dulces" sheetId="1" r:id="rId1"/>
     <sheet name="bebidas" sheetId="2" r:id="rId2"/>
     <sheet name="verdura" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>verdura</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -544,21 +550,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1018D657-1B63-1F42-8956-31EDCD85751D}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -566,369 +573,459 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
+        <f>CONCATENATE($I$2,D2)</f>
+        <v>A1</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:D22" si="0">CONCATENATE($I$2,D3)</f>
+        <v>A2</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>A3</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>A4</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>12.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>A5</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>A6</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>A7</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>A8</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>A9</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>A10</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>A11</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>A12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>A13</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>A14</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>A15</v>
+      </c>
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>A16</v>
+      </c>
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>A17</v>
+      </c>
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>A18</v>
+      </c>
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>A19</v>
+      </c>
+      <c r="D20">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>A20</v>
+      </c>
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>A21</v>
+      </c>
+      <c r="D22">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
@@ -945,15 +1042,15 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="5.375" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -970,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -987,7 +1084,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1101,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1021,7 +1118,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1135,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1152,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1072,7 +1169,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1089,7 +1186,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1106,7 +1203,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1237,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1187,15 +1284,15 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="5.375" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1212,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1229,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1246,7 +1343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1263,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1280,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -1297,7 +1394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1314,7 +1411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
